--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kruvelab-my.sharepoint.com/personal/helen_sepman_kruvelab_onmicrosoft_com/Documents/Documents/GitHub/Ionization_Efficiency_Collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HelenSepman\OneDrive - Kruvelab\Documents\GitHub\Ionization_Efficiency_Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9EF5085C-3DF1-4904-A6F0-27BDA6097F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D11CD291-7F57-4944-B849-A12C30D9C780}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9EF5085C-3DF1-4904-A6F0-27BDA6097F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9FB2F7B0-26AB-4BB4-930A-37220A1137F8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="2" xr2:uid="{772AB3E3-2558-488C-B3FD-6986CFFEB0F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{772AB3E3-2558-488C-B3FD-6986CFFEB0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_data" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SMILES</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>area_type</t>
+  </si>
+  <si>
+    <t>ion</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,13 +193,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -207,6 +204,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -522,37 +528,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E6BF19-C699-476C-8410-07EBD6AAD6D3}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -563,19 +570,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -604,37 +614,37 @@
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -649,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028342A2-3A1B-4D97-9C4D-B1ADA78629C4}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -665,40 +675,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -706,24 +716,24 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -737,21 +747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C13F06BC09883C43967BF016A818557D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b450b06a05260debb0a37fe2ce4a652">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="51cd2507-0961-4e64-875b-8f85580c8b74" xmlns:ns4="3f004be7-51c0-480c-9d4d-64c7080c7132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfeaee1f9257296bb7c976e87a5d9b28" ns3:_="" ns4:_="">
     <xsd:import namespace="51cd2507-0961-4e64-875b-8f85580c8b74"/>
@@ -974,32 +969,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1473572B-7ADC-4F90-8936-864418C0E02C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3f004be7-51c0-480c-9d4d-64c7080c7132"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51cd2507-0961-4e64-875b-8f85580c8b74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E497FF-FE51-45BC-A119-C86599997EC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F510867C-DAC7-4DB8-BDB6-5DE3451EDCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1016,4 +1001,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E497FF-FE51-45BC-A119-C86599997EC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1473572B-7ADC-4F90-8936-864418C0E02C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3f004be7-51c0-480c-9d4d-64c7080c7132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="51cd2507-0961-4e64-875b-8f85580c8b74"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>